--- a/dokumentace/LeanCanvas-UNICORN.xlsx
+++ b/dokumentace/LeanCanvas-UNICORN.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{6810E04D-31AB-4211-A89F-F8BD28635779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBFCCF6-CEA4-4C0B-801C-EBC7E28A824E}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{6810E04D-31AB-4211-A89F-F8BD28635779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561AB818-650F-4973-815F-23B378617EEC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="22860" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Projekt: Herní magazin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Odborný časopis</t>
   </si>
   <si>
     <t>PROBLÉM / POTŘEBA</t>
@@ -48,73 +48,46 @@
     <t>SEGMENTY ZÁKAZNÍKŮ</t>
   </si>
   <si>
-    <t>Potřeba centralizace</t>
-  </si>
-  <si>
-    <t>Webová aplikace</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Odborníci v oboru</t>
-  </si>
-  <si>
-    <t>Hráči</t>
-  </si>
-  <si>
-    <t>Zajištění archivovani</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>Poradenství</t>
-  </si>
-  <si>
-    <t>Tým hráčů</t>
-  </si>
-  <si>
-    <t>nehráči</t>
-  </si>
-  <si>
-    <t>Příhlašování</t>
-  </si>
-  <si>
-    <t>Přihlašovací/ registrační forrmulář</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Administátor</t>
-  </si>
-  <si>
-    <t>Mazání</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>editace</t>
-  </si>
-  <si>
-    <t>Recenzent</t>
-  </si>
-  <si>
-    <t>řazení</t>
-  </si>
-  <si>
-    <t>Redaktor</t>
-  </si>
-  <si>
-    <t>filtrování</t>
-  </si>
-  <si>
-    <t>Člen rady</t>
-  </si>
-  <si>
-    <t>Šéfredaktor</t>
+    <t>Centralizace časopisu</t>
+  </si>
+  <si>
+    <t>Webová aplikace PHP</t>
+  </si>
+  <si>
+    <t>Kvalitní obsah</t>
+  </si>
+  <si>
+    <t>Články od odborníků</t>
+  </si>
+  <si>
+    <t>Odborná veřejnost</t>
+  </si>
+  <si>
+    <t>Archivace článků</t>
+  </si>
+  <si>
+    <t>MySQL databáze</t>
+  </si>
+  <si>
+    <t>Centralizovaný systém</t>
+  </si>
+  <si>
+    <t>Recenzní posudky</t>
+  </si>
+  <si>
+    <t>Širší veřejnost</t>
+  </si>
+  <si>
+    <t>Volný přístup k článkům</t>
+  </si>
+  <si>
+    <t>Přihlašovací formuláře</t>
+  </si>
+  <si>
+    <t>Jasně stanovená hierarchie rolí</t>
+  </si>
+  <si>
+    <t>Přihlašování</t>
   </si>
   <si>
     <t>INDIKÁTORY</t>
@@ -123,37 +96,25 @@
     <t>CESTY K ZÁKAZNÍKŮM</t>
   </si>
   <si>
-    <t>Možnost tisku</t>
-  </si>
-  <si>
-    <t>Online - uloženo na serveru</t>
-  </si>
-  <si>
-    <t>Možnost stažení</t>
-  </si>
-  <si>
-    <t>Sociální sitě</t>
+    <t>Počet návštěv za období</t>
+  </si>
+  <si>
+    <t>Přístupné online</t>
+  </si>
+  <si>
+    <t>Množství zaslaných článků</t>
+  </si>
+  <si>
+    <t>Stažitelná předchozí vydání</t>
   </si>
   <si>
     <t>EXISTUJÍCI ALTERNATIVY</t>
   </si>
   <si>
-    <t>přístup k databazi článků</t>
-  </si>
-  <si>
-    <t>ANALOGIE</t>
-  </si>
-  <si>
-    <t>Herní veletrhy</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Interní chat</t>
-  </si>
-  <si>
-    <t>Level</t>
+    <t xml:space="preserve">Množství stažených vydání </t>
+  </si>
+  <si>
+    <t>LOGOS POLYTECHNIKOS</t>
   </si>
   <si>
     <t>VÝDAJE</t>
@@ -199,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,22 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -331,22 +283,74 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -359,37 +363,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -441,19 +414,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -471,171 +431,370 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,6 +803,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDE8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -979,7 +1143,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,430 +1153,421 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="1.85546875" customWidth="1"/>
     <col min="8" max="8" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15">
-        <f ca="1">TODAY()</f>
-        <v>44850</v>
-      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="65" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="C5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="37"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="66"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="37"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="67"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="37"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="67"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="37"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="38"/>
+      <c r="B14" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="F14" s="67"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="40"/>
+      <c r="B16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B17" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="69"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="3" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="95"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="42"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="42"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="42"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="71"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="43"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="71"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="43"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="71"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="43"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="71"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="43"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="71"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="43"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="44"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="8" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="39" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="37"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="37"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="37"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="37"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="37"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="37"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="37"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="38"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="6.75" customHeight="1"/>
     <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>52</v>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="56"/>
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A32:C32"/>
@@ -1423,19 +1578,6 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1447,8 +1589,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100ACB71971B47CD0439EBDA2CFA6075C38" ma:contentTypeVersion="2" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="be70910a1115bd952827b69f266b3190">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44a14aa1-0894-4409-a040-86e619425f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c08dc4d6a52cc18bfb05fd3cb1142cf" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100ACB71971B47CD0439EBDA2CFA6075C38" ma:contentTypeVersion="8" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="910981ab5265e7f3b0e9db6d202293f0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44a14aa1-0894-4409-a040-86e619425f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f094624a6d9190234f3f252b2563b53" ns2:_="">
     <xsd:import namespace="44a14aa1-0894-4409-a040-86e619425f06"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1458,6 +1600,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1476,6 +1623,35 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb784d73-6f6f-43ea-b94e-4dafa8f9a76e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1579,6 +1755,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="44a14aa1-0894-4409-a040-86e619425f06">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1587,20 +1773,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C024E6E9-8793-4FAF-BD46-6986C04E860E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CE6FFA-1FE1-4094-AD7D-11791CE82B31}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2201672C-F78C-4F90-A8FD-588EBF443668}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4067DD2C-4FE2-438A-9ACE-1BD050A20228}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4067DD2C-4FE2-438A-9ACE-1BD050A20228}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2201672C-F78C-4F90-A8FD-588EBF443668}"/>
 </file>